--- a/기초/계산표만들기.xlsx
+++ b/기초/계산표만들기.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\기초\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YallaFactory\Desktop\Excel\기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C74FD-E99B-4E55-946F-E1C13E06968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E276C31-2646-4935-93D4-72D3400D011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{26F16F75-7A06-4245-9D15-B2E4167F7CDF}"/>
+    <workbookView xWindow="7230" yWindow="7245" windowWidth="28755" windowHeight="13755" xr2:uid="{26F16F75-7A06-4245-9D15-B2E4167F7CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -90,10 +79,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +107,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -134,33 +139,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -474,57 +784,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0C7E8A-9B06-4166-B84C-04D694D0BA9C}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="16">
         <v>1500</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="16">
         <v>300</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="16">
         <f>B3*C3</f>
         <v>450000</v>
       </c>
+      <c r="E3" s="17">
+        <f>D3/$D$9</f>
+        <v>0.14729950900163666</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -535,11 +851,16 @@
         <v>300</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D8" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
         <v>540000</v>
       </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E9" si="1">D4/$D$9</f>
+        <v>0.176759410801964</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -553,8 +874,14 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11129296235679215</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -568,8 +895,14 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9099836333878884E-2</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -583,8 +916,14 @@
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4549918166939442E-2</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -598,14 +937,29 @@
         <f>B8*C8</f>
         <v>1500000</v>
       </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49099836333878888</v>
+      </c>
+      <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6">
+        <f>SUM(C3:C8)</f>
+        <v>1950</v>
+      </c>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>3055000</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
